--- a/output/fit_clients/fit_round_63.xlsx
+++ b/output/fit_clients/fit_round_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6822746074.920956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003464643609640697</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.09296159778694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9466214704683323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.09296159778694</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>7026330497.94919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005959070511558371</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.56604710915269</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8948208240916616</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.56604710915269</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5115672002.142485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003729971484003819</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.438313005950448</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9666426522508554</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.438313005950448</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4984410548.923247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003720435103916973</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.635986092224829</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8271856372471803</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.635986092224829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6507991368.60179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002531104629037363</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.467462764869615</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.864249020262165</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.467462764869615</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6892854786.761142</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.00107838392394694</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.560690440141835</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9016773748952128</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.560690440141835</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6875063366.421875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002300724985571515</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.389731699128257</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9559646342137865</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.389731699128257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5420746771.787729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003427446305112436</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.349190777532458</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9120032021518458</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.349190777532458</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3803051036.262977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003524791181853326</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2475207772474837</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.741246549208815</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.5442213486245473</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.741246549208815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4345320957.015604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.000973503223709479</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.460358469016404</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7706527643644172</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.460358469016404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8379101986.351782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001815112446503174</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3376472235405427</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.573410117475899</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7669136524900908</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.573410117475899</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5904000370.130201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002999174103899589</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.483584807710951</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.012436676620804</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.483584807710951</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8185116211.867747</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002778447723172075</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.986578531746391</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8912887359086883</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.986578531746391</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7051055888.593146</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003855794087480454</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.393583221501824</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9892480153894136</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.393583221501824</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6874311296.562391</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004187967985483835</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.810111569201567</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.064714433221932</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.155026704002685</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.064714433221932</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6141680879.561396</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003019422245745135</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.914941653214151</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9318273969876384</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.914941653214151</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5306775655.016363</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001101479563319916</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.244723817715294</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9367314079881239</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.244723817715294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3001892325.684877</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001632394021575138</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.77645163460741</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9078758091616301</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.77645163460741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6112547798.569844</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009844106506639468</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.646032583346724</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.849936516089003</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.646032583346724</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8213656030.037091</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004682544709365194</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.842067060521219</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8546068423036434</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.842067060521219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5107861694.512914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00509020972187817</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6294927589934982</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.619026828310766</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.870285747249342</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.619026828310766</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5846408116.446314</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001312238782359202</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.317167452628492</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8474578925396911</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.317167452628492</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8146427022.458192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003257178881570507</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.239942864190721</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9964850127573632</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.239942864190721</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5293026661.563751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003233049694507283</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.193320484025636</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9337331163024755</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.193320484025636</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5425651868.377622</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00123899912802217</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.423347926858785</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8156032824601809</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.423347926858785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8544567807.904907</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003790602828354768</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.79439558634094</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9280042178624026</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.79439558634094</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8207046118.485181</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.0045725135400079</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.022515878302811</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9095290139465694</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.022515878302811</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5915124518.96159</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001308881859931405</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.100938477581748</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9769988566859481</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.100938477581748</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7993388734.787586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003453976299409857</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8108973298030426</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.746125707281713</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.142017570091841</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.746125707281713</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7298062186.26787</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002782415219234922</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.749531020363624</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9576912529558453</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.749531020363624</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4868928970.675585</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00103323967570274</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.163065987459878</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9321228406868902</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.163065987459878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5857166948.509481</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002944937841784806</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.386619478588057</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8553977555509598</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.386619478588057</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6088674666.420109</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004300673970673441</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.023079421997572</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7516743895735497</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.023079421997572</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5361552931.999224</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002568247023235588</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.869901044776465</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9243820884418136</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.869901044776465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7197957480.082445</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003179628417583182</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.992317724657205</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.017149125531562</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.992317724657205</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4993446465.600061</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004497024985349866</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.943693434549132</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.012634638275309</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.943693434549132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3746029615.412882</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.0035131201747461</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.594416908522277</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8899110971110613</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.594416908522277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5257136485.207928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002447318517066532</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.190209056573396</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8584361548566748</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.190209056573396</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4771700999.378736</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004158381886384674</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.066289681193851</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9825183336511459</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.066289681193851</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6172101086.212366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001244737462238972</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.153969589970755</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9271136668769856</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.153969589970755</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5712260381.240438</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003905687518278978</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.668127065876204</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.970184212391843</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.668127065876204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5843583680.64794</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003951551635574641</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.889990285998833</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.308899501761875</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.889990285998833</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5326150954.024535</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001418181202553404</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.711863202399414</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9274913743798279</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.711863202399414</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5298704953.1572</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001234805421369553</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.158790724032631</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9517385847173176</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.158790724032631</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7637951848.970008</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004377866131310714</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.90110311712796</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8295735046632008</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.90110311712796</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6889016444.22568</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002330743557433766</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.687500426418225</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8872909000724392</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.687500426418225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7953560899.462852</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003656771484962585</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.340562503322515</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9465423405564992</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.340562503322515</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5294556582.397893</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004737685903215954</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8848213838182741</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.647348524796499</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.167675153523258</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.647348524796499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6759959487.526216</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002537460710642907</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4183506514589679</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.427663984657237</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9017164083241622</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.427663984657237</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4096798268.543763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003866327926512322</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.583000520335814</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.932203194596355</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.583000520335814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6393652357.107047</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001775009038786639</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.928339865961714</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8584361548566748</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.928339865961714</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6636913699.804894</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002676710013340479</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.148032624129711</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9359291957923664</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.148032624129711</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4672298327.696692</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004658696725191168</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.511727283229974</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8354975348932712</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.511727283229974</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6854060524.763588</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004146787830444771</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.667324471658164</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8979490550468671</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.667324471658164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4153020553.345798</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002840458015848009</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.031421162775189</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9151545469767134</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.031421162775189</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6448920528.660641</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003855414952121451</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.633728987282817</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8076758265768142</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.633728987282817</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4496335588.209599</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001739826161096358</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.443598011611209</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8156032824601809</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.443598011611209</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7230242877.337704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003677814704819299</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.958038885373557</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9004550621681036</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.958038885373557</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4963544281.396105</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003905007261527052</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.648417956360577</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8286675620924947</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.648417956360577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5242414904.840134</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004748622096474781</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.117466489428181</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9258702431762498</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.117466489428181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4292446414.684456</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003933122860277056</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.257512343541899</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8558071152079254</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.257512343541899</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8702443493.659159</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004093522720195422</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.477441823225494</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5039526306789697</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.477441823225494</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4380552372.499139</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003476811742893269</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9004405087660584</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.955170124812228</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.201620321779145</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.955170124812228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6754937347.639059</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004209379530761786</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.126827763444728</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9924315253065404</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.126827763444728</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4310113391.291071</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002521399682050932</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.169280054979124</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9215611394088596</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.169280054979124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6095218551.918109</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00366571385038283</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.380616559254739</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8906706608229712</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.380616559254739</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8098693473.22311</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001912980765728234</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.45846350729613</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7164421911536945</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.45846350729613</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4509968568.645106</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001048052711864242</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.78171770751938</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9946242205282436</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.78171770751938</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7815628120.931517</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002522799683051722</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7659771677287375</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.109230509560242</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.100255164307824</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.109230509560242</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4464392477.866593</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004015083748452507</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.245642999883513</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.813575171842887</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.245642999883513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7972315419.274092</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001987704368058765</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.767251660206021</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.042601465798017</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.767251660206021</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7782191257.237826</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001074675937798793</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.273917353248738</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9648019394919322</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.273917353248738</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5867967785.284191</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003925981303573061</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.9318659533893</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8808626107418484</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.9318659533893</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6377032143.90862</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003868945927022754</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.75934688280757</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8558071152079254</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.75934688280757</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5844093265.804095</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002376950448183523</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.680933261951254</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9107391485076162</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.680933261951254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5127672489.84702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005766498751089547</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2324518986133492</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.332148081483338</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.5805681299346446</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.332148081483338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7412956299.511041</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004651899485295734</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.628368580456252</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8971121637146017</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.628368580456252</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8763229889.639296</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002020175753062835</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.914476393044326</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9829262682910656</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.914476393044326</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6687045444.238256</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002485325475972076</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.812453375503197</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9485764328404191</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.812453375503197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4775437948.265602</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004410530096248448</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.407319194202209</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9751008795899139</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.407319194202209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6120038323.645516</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003971690457493468</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8841797769943078</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.670816618668274</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.192489224064665</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.670816618668274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9466214732.009224</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002281105855982709</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>19</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.253341501917309</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8004517211584907</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.253341501917309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7644082933.818562</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00471940646378365</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.564961341212122</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.942858281474623</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.564961341212122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3922046869.303204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003669334132791277</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2765951686604624</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.322465040140529</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.5078339643511353</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.322465040140529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6557778149.240005</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002425526727254262</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.350151273917041</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.855334727840113</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.727267560267796</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.855334727840113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3405624600.762288</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001382037512452973</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>20</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3766840958422725</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.254123711204325</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.7235235813410227</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.254123711204325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6431594354.467847</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004295016048391228</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6501190607767533</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.703737203690181</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9409008659830028</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.703737203690181</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8066035748.527395</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004077048600608651</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.981505625276627</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9408914381354808</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.981505625276627</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6070755074.800081</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003638975466044901</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.805426098776139</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9387069677487428</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.805426098776139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5238126791.291612</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003181640995202273</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8475501178063845</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.159812315317439</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.063727844101277</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.159812315317439</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5448480767.764113</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002729294883435789</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.069317105932213</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.041087637160766</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.069317105932213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6784945544.448223</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001268689748145973</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.1094483812503574</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.693517197290262</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.08679987764485179</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.693517197290262</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6094155688.938442</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001449568955761573</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2266601155104118</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.345287171762563</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.59249589903144</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.345287171762563</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5986138389.726562</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002000363234863879</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.226543907456834</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9312362283920651</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.226543907456834</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6514456948.082883</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003097932265126077</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>17</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.496444954023998</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9079583089252153</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.496444954023998</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6062072215.983599</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003975864073745386</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.017105675125301</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8869805234603066</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.017105675125301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8729517012.315048</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003879724155216634</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.812404814619141</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8667660449413448</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.812404814619141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2883995586.943964</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004637493320263425</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.724868094321092</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8979490550468671</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.724868094321092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5523003721.05142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003651830660469145</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.064790066810888</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8363065204230731</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.064790066810888</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8420664276.669088</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001503913145842042</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5379549629964756</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.960926421079233</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8806350279968185</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.960926421079233</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_63.xlsx
+++ b/output/fit_clients/fit_round_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6822746074.920956</v>
+        <v>2001519129.484553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003464643609640697</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.09626728783687054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03383988654092588</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1000759560.454981</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>7026330497.94919</v>
+        <v>2491475645.468871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005959070511558371</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1196801596032758</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04266273632628535</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>13</v>
+      <c r="J3" t="n">
+        <v>1245737938.798481</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5115672002.142485</v>
+        <v>3395468234.488881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003729971484003819</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.1137350649979137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02899780772020699</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1697734088.482595</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4984410548.923247</v>
+        <v>2847961647.772352</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003720435103916973</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09213437100093846</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03160388152175144</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1423980903.695078</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6507991368.60179</v>
+        <v>2561257039.541711</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002531104629037363</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1007443441019414</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05493809074501326</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1280628488.521374</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6892854786.761142</v>
+        <v>2057006898.950003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00107838392394694</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19</v>
+        <v>0.0814796116801713</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03986909152866286</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1028503505.022185</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6875063366.421875</v>
+        <v>3380307572.81862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002300724985571515</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16</v>
+        <v>0.2208915490496834</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0335491402406382</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1690153882.704906</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5420746771.787729</v>
+        <v>1930576762.149525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003427446305112436</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
+        <v>0.1603225163817978</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03711437507924575</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>965288417.1866684</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3803051036.262977</v>
+        <v>4772105697.522621</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003524791181853326</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1925079163485519</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04073132311668889</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2386052930.323659</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4345320957.015604</v>
+        <v>3264341287.306985</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000973503223709479</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1848609135716475</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03305357226798896</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1632170604.887105</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2619654229.720841</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1397698247173112</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03474662719422</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8379101986.351782</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001815112446503174</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18</v>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1309827097.942681</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3314536769.323462</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09199397125326579</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02241551467690885</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5904000370.130201</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.002999174103899589</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1657268474.287977</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8185116211.867747</v>
+        <v>2418127951.742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002778447723172075</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
+        <v>0.1535285442714989</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04108838067286091</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1209064052.337392</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7051055888.593146</v>
+        <v>1182853576.810493</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003855794087480454</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
+        <v>0.06610939544983745</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03703335131551354</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>591426801.9057178</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6874311296.562391</v>
+        <v>2559799349.320381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004187967985483835</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20</v>
+        <v>0.1038058496735616</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03729627582750105</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1279899700.0234</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6141680879.561396</v>
+        <v>3819499932.730128</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003019422245745135</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1561902987399696</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04549955894615568</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1909750009.762744</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5306775655.016363</v>
+        <v>3426290452.854199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001101479563319916</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.126695999607553</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02486724634226356</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1713145225.754245</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3001892325.684877</v>
+        <v>1078719958.132434</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001632394021575138</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1637411127515763</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02409283489712324</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>539360027.3966067</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2408413442.728881</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1114288421479558</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02790042189205377</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="n">
-        <v>508</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6112547798.569844</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0009844106506639468</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
+      <c r="J20" t="n">
+        <v>1204206704.092882</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8213656030.037091</v>
+        <v>1712299061.400362</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004682544709365194</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.09936968697596019</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0437014387271175</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>856149593.9755206</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5107861694.512914</v>
+        <v>3333208600.811664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00509020972187817</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.09941762625485616</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04349040772318707</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1666604341.878618</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5846408116.446314</v>
+        <v>1184799288.435922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001312238782359202</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
+        <v>0.1418070212236004</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05201729139288536</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>592399683.1482284</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8146427022.458192</v>
+        <v>3866916367.883474</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003257178881570507</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1412721899728758</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02710614455133508</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1933458160.765707</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5293026661.563751</v>
+        <v>1179723279.598066</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003233049694507283</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.0926998670065797</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02909539489437393</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>589861662.3252597</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5425651868.377622</v>
+        <v>1361804578.472848</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00123899912802217</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07905134250309134</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03526785719491241</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>680902349.767792</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8544567807.904907</v>
+        <v>2943337688.241164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003790602828354768</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1221710684561191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01771265565440857</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1471668906.660382</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8207046118.485181</v>
+        <v>2959284659.882791</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0045725135400079</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16</v>
+        <v>0.1236546012277956</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03766916548502546</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1479642337.546964</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5915124518.96159</v>
+        <v>4251633241.738467</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001308881859931405</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.1077935034589272</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04308496198927915</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2125816620.241853</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7993388734.787586</v>
+        <v>2170466171.334255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003453976299409857</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>20</v>
+        <v>0.134048483663333</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03740836291662073</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1085233142.438124</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7298062186.26787</v>
+        <v>1206184796.336191</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002782415219234922</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+        <v>0.1062345392233665</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03522662585488467</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>603092348.0631595</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4868928970.675585</v>
+        <v>1550091631.594822</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00103323967570274</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08310010947307044</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03619342738048169</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>775045894.3891417</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5857166948.509481</v>
+        <v>2080488875.97526</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002944937841784806</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.2061810832954851</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05403165717914728</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1040244511.81449</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6088674666.420109</v>
+        <v>1043795654.654983</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004300673970673441</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>19</v>
+        <v>0.1087902832951721</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02633510993073087</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>521897857.8871203</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5361552931.999224</v>
+        <v>1186682248.999238</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002568247023235588</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>16</v>
+        <v>0.112141987711114</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03832853029265491</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>593341102.0199324</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7197957480.082445</v>
+        <v>2182057140.762599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003179628417583182</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
+        <v>0.1320897840123776</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01979540815741968</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1091028617.716329</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4993446465.600061</v>
+        <v>2025381890.134748</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004497024985349866</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.1112161913016717</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0352075344531482</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1012690975.73086</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3746029615.412882</v>
+        <v>1532342001.196234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0035131201747461</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08212415264509912</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02881310240270844</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>766171045.1684439</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5257136485.207928</v>
+        <v>1417954990.767685</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002447318517066532</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
+        <v>0.1222732614231336</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02681274448091064</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>708977578.1865613</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4771700999.378736</v>
+        <v>1555033469.577664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004158381886384674</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1522247798139248</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05414589375576909</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>777516687.1022815</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6172101086.212366</v>
+        <v>1866872741.213204</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001244737462238972</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>18</v>
+        <v>0.1140877103211541</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04471806930419266</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>933436457.7166396</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5712260381.240438</v>
+        <v>4021176339.148282</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003905687518278978</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>16</v>
+        <v>0.09408626052005392</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03473604896320229</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2010588200.216116</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5843583680.64794</v>
+        <v>2945639632.881903</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003951551635574641</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.1324492594739279</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01755073152698953</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1472819820.174305</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5326150954.024535</v>
+        <v>1867664618.69251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001418181202553404</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.0915173947824975</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02349621699493359</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>933832389.1739616</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5298704953.1572</v>
+        <v>2538820192.312837</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001234805421369553</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1513610051624527</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03753405652702473</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1269410141.187817</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7637951848.970008</v>
+        <v>5480671998.278948</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004377866131310714</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1485170055505481</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04009565096036342</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2740336053.361628</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6889016444.22568</v>
+        <v>4192971618.807884</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002330743557433766</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1936636482935297</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03981947267630583</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2096485819.346202</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7953560899.462852</v>
+        <v>3857122165.590207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003656771484962585</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
+        <v>0.06909395980787671</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02609289650080786</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1928561125.353097</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5294556582.397893</v>
+        <v>1375860012.453523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004737685903215954</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1524632782421297</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04200434972890692</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>687930057.460696</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3594831895.908442</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1415007120281378</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03407109196726948</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>528</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6759959487.526216</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.002537460710642907</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1797415965.345568</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4096798268.543763</v>
+        <v>1108312178.663679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003866327926512322</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.118224235481338</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04440603156760528</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>554156155.6507562</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6393652357.107047</v>
+        <v>3470324397.486018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001775009038786639</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1069839367000476</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04876593445700025</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>15</v>
+      <c r="I52" t="n">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1735162286.295467</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6636913699.804894</v>
+        <v>3412976389.15051</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002676710013340479</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+        <v>0.1700332787399002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03110724752100455</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1706488198.345916</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4672298327.696692</v>
+        <v>3409791273.795197</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004658696725191168</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1059262703872737</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05011108554739777</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1704895654.550016</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6854060524.763588</v>
+        <v>4450209397.23931</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004146787830444771</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>20</v>
+        <v>0.1870702043894985</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02202623392391042</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2225104693.291386</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4153020553.345798</v>
+        <v>1832217073.749638</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002840458015848009</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1534445609289118</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04328311513588622</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>916108529.8399302</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6448920528.660641</v>
+        <v>3029405673.075972</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003855414952121451</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1587819837362119</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02484320470987749</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1514702843.325535</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4496335588.209599</v>
+        <v>1208742004.75883</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001739826161096358</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.13661514751811</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03147271121041492</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>604371059.9841039</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7230242877.337704</v>
+        <v>5414639362.371017</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003677814704819299</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1014468674087116</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04161308352823787</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2707319588.794951</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4963544281.396105</v>
+        <v>3092821416.725348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003905007261527052</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1619292792958064</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02047821295829469</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1546410788.33673</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3264296789.59667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.120486441561845</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02609855791729734</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5242414904.840134</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.004748622096474781</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1632148350.224722</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4292446414.684456</v>
+        <v>1448161871.857615</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003933122860277056</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1944797508436622</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0408608463134023</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>724080911.1129142</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8702443493.659159</v>
+        <v>4801825302.99614</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004093522720195422</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.09824979534515482</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03890865291407954</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>15</v>
+      <c r="I63" t="n">
+        <v>18</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2400912677.990772</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4380552372.499139</v>
+        <v>4916434921.270991</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003476811742893269</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1637270448064016</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02834386342874276</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2458217560.844845</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6754937347.639059</v>
+        <v>5220299454.331595</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004209379530761786</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1312795269749293</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02463022989463757</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2610149672.831203</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4310113391.291071</v>
+        <v>4740154301.347223</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002521399682050932</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1591743447792099</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04028972959184449</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2370077163.80089</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6095218551.918109</v>
+        <v>2786162355.458366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00366571385038283</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.08053250703662336</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03978373899935</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>10</v>
+      <c r="I67" t="n">
+        <v>20</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1393081213.95724</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8098693473.22311</v>
+        <v>5715378358.803563</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001912980765728234</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>13</v>
+        <v>0.1371166141163363</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04440246866396608</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2857689279.017532</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4509968568.645106</v>
+        <v>1622190419.166727</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001048052711864242</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1682923626666232</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04379433814702404</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>811095165.5640962</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7815628120.931517</v>
+        <v>2830225659.37695</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002522799683051722</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.08794267181578906</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03930714699373039</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1415112795.533388</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4464392477.866593</v>
+        <v>4760923897.263731</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004015083748452507</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.177618357731053</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02648129281610753</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2380462036.357268</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7972315419.274092</v>
+        <v>1569766416.910576</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001987704368058765</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>13</v>
+        <v>0.07307465735779985</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0465213044914899</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>784883224.0737654</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7782191257.237826</v>
+        <v>2606192140.538542</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001074675937798793</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.1046544335673181</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05076221832533621</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1303096102.177029</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5867967785.284191</v>
+        <v>3240988974.176624</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003925981303573061</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.135424282751616</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03247263295803959</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1620494531.510272</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6377032143.90862</v>
+        <v>1735488250.329918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003868945927022754</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
+        <v>0.1457761670887236</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02915668714996153</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>867744114.0115466</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5844093265.804095</v>
+        <v>4934543839.06126</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002376950448183523</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>13</v>
+        <v>0.09856213939630465</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02229242330449054</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2467271943.316323</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5127672489.84702</v>
+        <v>2280290258.674073</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005766498751089547</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1555034805541009</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02921439870084282</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1140145232.106805</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7412956299.511041</v>
+        <v>3794399608.604806</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004651899485295734</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>13</v>
+        <v>0.1099761041680981</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03941305285044745</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1897199784.645021</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8763229889.639296</v>
+        <v>1864225190.680635</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002020175753062835</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.1105888468149705</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03343145478803073</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>932112693.1400164</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6687045444.238256</v>
+        <v>4373019035.595948</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002485325475972076</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>20</v>
+        <v>0.09671456361706704</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03263995954812177</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2186509535.712098</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4775437948.265602</v>
+        <v>4189161192.68024</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004410530096248448</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.08437512196235268</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02033833104644518</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2094580566.482527</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6120038323.645516</v>
+        <v>3602773031.775241</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003971690457493468</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1327032691902451</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01983671694621452</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1801386577.702345</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9466214732.009224</v>
+        <v>1954540846.407799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002281105855982709</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1330167959613217</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03084444205287552</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>977270402.7805005</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7644082933.818562</v>
+        <v>2505090631.149723</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00471940646378365</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>17</v>
+        <v>0.09433633606335524</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03459553635160526</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1252545246.486638</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3922046869.303204</v>
+        <v>2628026448.798945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003669334132791277</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1757333501614423</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03702466687378831</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1314013243.381418</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6557778149.240005</v>
+        <v>2546298606.282139</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002425526727254262</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.118096631072098</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02087514151931583</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1273149406.622319</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3405624600.762288</v>
+        <v>1457942184.085147</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001382037512452973</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1337205397636123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03578363642361228</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>728971213.6701914</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6431594354.467847</v>
+        <v>3576689532.153262</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004295016048391228</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>14</v>
+        <v>0.1490307481970309</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0298784711004236</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1788344853.367303</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8066035748.527395</v>
+        <v>2361587404.518545</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004077048600608651</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.1126247721800226</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03563277104013601</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1180793787.046615</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6070755074.800081</v>
+        <v>2109817092.741036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003638975466044901</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.1221968089911765</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03991081502687179</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1054908636.627589</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5238126791.291612</v>
+        <v>1964086746.657183</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003181640995202273</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>19</v>
+        <v>0.1961666472717173</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04416972496686104</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>982043350.2732443</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5448480767.764113</v>
+        <v>2577770723.307728</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002729294883435789</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07813856626464294</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03237423242707113</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1288885351.385444</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6784945544.448223</v>
+        <v>3118425247.142646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001268689748145973</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.1419501448555154</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04758572551648216</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1559212681.045779</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6094155688.938442</v>
+        <v>2427259670.289132</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001449568955761573</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>19</v>
+        <v>0.1676811969800562</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02972650974186679</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1213629889.006043</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5986138389.726562</v>
+        <v>3025213337.345817</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002000363234863879</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1325203012684266</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04125462723053102</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>15</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1512606666.457936</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6514456948.082883</v>
+        <v>2152935290.391146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003097932265126077</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>17</v>
+        <v>0.1121433758955229</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04357741626778248</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1076467615.743308</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6062072215.983599</v>
+        <v>5113334174.417184</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003975864073745386</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>16</v>
+        <v>0.1192837859669895</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02430761244833257</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2556667233.013929</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8729517012.315048</v>
+        <v>2596179702.416497</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003879724155216634</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>24</v>
+        <v>0.08515887964252601</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02460455993582423</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1298089808.415634</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2883995586.943964</v>
+        <v>3258768301.158666</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004637493320263425</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1350025086949751</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03492375267201581</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1629384155.188215</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5523003721.05142</v>
+        <v>4402328799.131832</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003651830660469145</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>6</v>
+        <v>0.1179177944495253</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02330622832732131</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2201164502.207257</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8420664276.669088</v>
+        <v>2714077744.695138</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001503913145842042</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.2155579744833635</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05254450047020159</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>20</v>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1357038923.500527</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_63.xlsx
+++ b/output/fit_clients/fit_round_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2001519129.484553</v>
+        <v>2252138309.051109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09626728783687054</v>
+        <v>0.07986027452597848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03383988654092588</v>
+        <v>0.03084251702088817</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1000759560.454981</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2491475645.468871</v>
+        <v>2618621642.964246</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1196801596032758</v>
+        <v>0.12855298507386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04266273632628535</v>
+        <v>0.0352582664391062</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1245737938.798481</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3395468234.488881</v>
+        <v>4740284332.273119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137350649979137</v>
+        <v>0.1187056394372886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02899780772020699</v>
+        <v>0.037007161624318</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1697734088.482595</v>
       </c>
     </row>
     <row r="5">
@@ -592,29 +564,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2847961647.772352</v>
+        <v>3667041955.561755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09213437100093846</v>
+        <v>0.09665311476858778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03160388152175144</v>
+        <v>0.04479949790777563</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1423980903.695078</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2561257039.541711</v>
+        <v>2230348620.659158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1007443441019414</v>
+        <v>0.1336679825386951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05493809074501326</v>
+        <v>0.04789034806495581</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1280628488.521374</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2057006898.950003</v>
+        <v>2650581052.910729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0814796116801713</v>
+        <v>0.07942227020365132</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03986909152866286</v>
+        <v>0.04683441803321649</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1028503505.022185</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3380307572.81862</v>
+        <v>3675784470.839397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2208915490496834</v>
+        <v>0.2011321763011168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0335491402406382</v>
+        <v>0.03130076841541744</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1690153882.704906</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1930576762.149525</v>
+        <v>2017474939.228539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603225163817978</v>
+        <v>0.1668725989031662</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03711437507924575</v>
+        <v>0.03335984659550608</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>965288417.1866684</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4772105697.522621</v>
+        <v>5898296380.308462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1925079163485519</v>
+        <v>0.1853268791795362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04073132311668889</v>
+        <v>0.0499849605809034</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2386052930.323659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3264341287.306985</v>
+        <v>3365180745.079116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1848609135716475</v>
+        <v>0.1668955642770308</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03305357226798896</v>
+        <v>0.04679924686003183</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1632170604.887105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2619654229.720841</v>
+        <v>2480998012.801212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1397698247173112</v>
+        <v>0.1463114702433074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03474662719422</v>
+        <v>0.05016574160563839</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1309827097.942681</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3314536769.323462</v>
+        <v>4584645201.255255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09199397125326579</v>
+        <v>0.09473033998521255</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02241551467690885</v>
+        <v>0.0283080386954153</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1657268474.287977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2418127951.742</v>
+        <v>3467051616.712815</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1535285442714989</v>
+        <v>0.1314062935227706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04108838067286091</v>
+        <v>0.03801458112837387</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1209064052.337392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1182853576.810493</v>
+        <v>1537217799.854177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06610939544983745</v>
+        <v>0.07973491289643093</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03703335131551354</v>
+        <v>0.04629254158078221</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>591426801.9057178</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2559799349.320381</v>
+        <v>2451003480.341559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1038058496735616</v>
+        <v>0.09584375344790282</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03729627582750105</v>
+        <v>0.04804055914645101</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1279899700.0234</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3819499932.730128</v>
+        <v>3541907026.101292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1561902987399696</v>
+        <v>0.155321772172791</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04549955894615568</v>
+        <v>0.04948582331349305</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1909750009.762744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3426290452.854199</v>
+        <v>3273767909.39124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126695999607553</v>
+        <v>0.16005316193313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02486724634226356</v>
+        <v>0.0305454283034754</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1713145225.754245</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1078719958.132434</v>
+        <v>1022187274.408392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1637411127515763</v>
+        <v>0.1199319919033756</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02409283489712324</v>
+        <v>0.02226329598842496</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>539360027.3966067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2408413442.728881</v>
+        <v>1911376299.04052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1114288421479558</v>
+        <v>0.1495178425608228</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02790042189205377</v>
+        <v>0.02001501030203824</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1204206704.092882</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1712299061.400362</v>
+        <v>1854996047.504384</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09936968697596019</v>
+        <v>0.0683692407463876</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0437014387271175</v>
+        <v>0.03822443598024133</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>856149593.9755206</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3333208600.811664</v>
+        <v>3093429986.021851</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09941762625485616</v>
+        <v>0.09045213014417249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04349040772318707</v>
+        <v>0.05425628593553965</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1666604341.878618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184799288.435922</v>
+        <v>1457732635.863721</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1418070212236004</v>
+        <v>0.1773902489938743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05201729139288536</v>
+        <v>0.04864290213373013</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592399683.1482284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3866916367.883474</v>
+        <v>2606266711.427223</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1412721899728758</v>
+        <v>0.122596593090686</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02710614455133508</v>
+        <v>0.02507109993322947</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1933458160.765707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1179723279.598066</v>
+        <v>1412965842.133536</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0926998670065797</v>
+        <v>0.1205168996231528</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02909539489437393</v>
+        <v>0.0272209417920855</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>589861662.3252597</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1361804578.472848</v>
+        <v>1161689145.124381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07905134250309134</v>
+        <v>0.1129984198409871</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03526785719491241</v>
+        <v>0.03822243063331355</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>680902349.767792</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2943337688.241164</v>
+        <v>3926542189.967365</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1221710684561191</v>
+        <v>0.1373502511844081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01771265565440857</v>
+        <v>0.01836445933775774</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1471668906.660382</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2959284659.882791</v>
+        <v>2686000561.760923</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1236546012277956</v>
+        <v>0.1094031033910358</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03766916548502546</v>
+        <v>0.0366314430204681</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1479642337.546964</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4251633241.738467</v>
+        <v>5608860662.310422</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1077935034589272</v>
+        <v>0.1228123489618846</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04308496198927915</v>
+        <v>0.02813385113720838</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2125816620.241853</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2170466171.334255</v>
+        <v>1862995585.572787</v>
       </c>
       <c r="F30" t="n">
-        <v>0.134048483663333</v>
+        <v>0.1328163553966024</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03740836291662073</v>
+        <v>0.0319706836752306</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1085233142.438124</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1206184796.336191</v>
+        <v>1032772623.615398</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1062345392233665</v>
+        <v>0.07316291951076868</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03522662585488467</v>
+        <v>0.04443675920145078</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>603092348.0631595</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1550091631.594822</v>
+        <v>1778901726.064896</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08310010947307044</v>
+        <v>0.09875316430632874</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03619342738048169</v>
+        <v>0.03047898726632805</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>775045894.3891417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2080488875.97526</v>
+        <v>2751798617.121212</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2061810832954851</v>
+        <v>0.2063483475249628</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05403165717914728</v>
+        <v>0.05187286229619287</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1040244511.81449</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1043795654.654983</v>
+        <v>1313011943.518547</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1087902832951721</v>
+        <v>0.07817023352534182</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02633510993073087</v>
+        <v>0.02773784571543434</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>521897857.8871203</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1186682248.999238</v>
+        <v>904431358.0471742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.112141987711114</v>
+        <v>0.08214922633398763</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03832853029265491</v>
+        <v>0.03796326298721971</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>593341102.0199324</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2182057140.762599</v>
+        <v>3216866263.025226</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1320897840123776</v>
+        <v>0.1656408711286202</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01979540815741968</v>
+        <v>0.01905360605237486</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1091028617.716329</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2025381890.134748</v>
+        <v>2876802213.683964</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1112161913016717</v>
+        <v>0.09782763589071557</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0352075344531482</v>
+        <v>0.03998001313909465</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1012690975.73086</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1532342001.196234</v>
+        <v>1958606310.913746</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08212415264509912</v>
+        <v>0.1069565417042786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02881310240270844</v>
+        <v>0.03898428025983269</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>766171045.1684439</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1417954990.767685</v>
+        <v>1838383087.453412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1222732614231336</v>
+        <v>0.1418386316105127</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02681274448091064</v>
+        <v>0.03150941806011771</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>708977578.1865613</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1555033469.577664</v>
+        <v>1516792166.608482</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1522247798139248</v>
+        <v>0.15755050572472</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05414589375576909</v>
+        <v>0.04375016227501567</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>777516687.1022815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1866872741.213204</v>
+        <v>2324199719.65404</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1140877103211541</v>
+        <v>0.1097632945568279</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04471806930419266</v>
+        <v>0.0472575649377892</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>933436457.7166396</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4021176339.148282</v>
+        <v>2765147449.246626</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09408626052005392</v>
+        <v>0.07827644911763533</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03473604896320229</v>
+        <v>0.04348666041938291</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2010588200.216116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2945639632.881903</v>
+        <v>1916168030.089214</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1324492594739279</v>
+        <v>0.1306675816697384</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01755073152698953</v>
+        <v>0.02545098931951967</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>20</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1472819820.174305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1867664618.69251</v>
+        <v>2176233812.157379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0915173947824975</v>
+        <v>0.09672527039509987</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02349621699493359</v>
+        <v>0.02821236296641738</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>933832389.1739616</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2538820192.312837</v>
+        <v>2171278748.358895</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1513610051624527</v>
+        <v>0.1584293445013525</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03753405652702473</v>
+        <v>0.03856979476652914</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1269410141.187817</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5480671998.278948</v>
+        <v>3894019591.762187</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1485170055505481</v>
+        <v>0.1089012804649443</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04009565096036342</v>
+        <v>0.04863623120081333</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2740336053.361628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4192971618.807884</v>
+        <v>3879996909.740476</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1936636482935297</v>
+        <v>0.1834830568768085</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03981947267630583</v>
+        <v>0.03825755336411803</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2096485819.346202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3857122165.590207</v>
+        <v>2997778821.354714</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06909395980787671</v>
+        <v>0.1054224815502103</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02609289650080786</v>
+        <v>0.02435261649425894</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1928561125.353097</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1375860012.453523</v>
+        <v>1903280641.119934</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1524632782421297</v>
+        <v>0.1680521201522471</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04200434972890692</v>
+        <v>0.04305638684879166</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>687930057.460696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3594831895.908442</v>
+        <v>2699494866.426537</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1415007120281378</v>
+        <v>0.1317357904682734</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03407109196726948</v>
+        <v>0.03390512303949031</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>21</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1797415965.345568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1108312178.663679</v>
+        <v>1284613708.101819</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118224235481338</v>
+        <v>0.1842293797701522</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04440603156760528</v>
+        <v>0.0339805929005342</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>554156155.6507562</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3470324397.486018</v>
+        <v>3619781089.391008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1069839367000476</v>
+        <v>0.1109288881152866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04876593445700025</v>
+        <v>0.04075705250257448</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1735162286.295467</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3412976389.15051</v>
+        <v>2435753929.241004</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1700332787399002</v>
+        <v>0.1789384391671598</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03110724752100455</v>
+        <v>0.03504000707644704</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1706488198.345916</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3409791273.795197</v>
+        <v>4352416623.613462</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1059262703872737</v>
+        <v>0.1344741789577207</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05011108554739777</v>
+        <v>0.03750427933664148</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1704895654.550016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4450209397.23931</v>
+        <v>4323750820.765547</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1870702043894985</v>
+        <v>0.146979091755892</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02202623392391042</v>
+        <v>0.02811754685208354</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2225104693.291386</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1832217073.749638</v>
+        <v>1154677394.69797</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1534445609289118</v>
+        <v>0.1524607187426588</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04328311513588622</v>
+        <v>0.04246851191809837</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>916108529.8399302</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3029405673.075972</v>
+        <v>2940538571.469251</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1587819837362119</v>
+        <v>0.179464009518229</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02484320470987749</v>
+        <v>0.01868218405411465</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>20</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1514702843.325535</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1208742004.75883</v>
+        <v>1311832362.173937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.13661514751811</v>
+        <v>0.1883188715900671</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03147271121041492</v>
+        <v>0.03443890181226006</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>604371059.9841039</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5414639362.371017</v>
+        <v>3347786698.363436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014468674087116</v>
+        <v>0.1129260588695774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04161308352823787</v>
+        <v>0.03192169662687767</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2707319588.794951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3092821416.725348</v>
+        <v>3356698271.482775</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1619292792958064</v>
+        <v>0.1784725714097294</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02047821295829469</v>
+        <v>0.02723467894826701</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1546410788.33673</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3264296789.59667</v>
+        <v>2476027499.271243</v>
       </c>
       <c r="F61" t="n">
-        <v>0.120486441561845</v>
+        <v>0.1422886681953621</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02609855791729734</v>
+        <v>0.02923024850177936</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1632148350.224722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1448161871.857615</v>
+        <v>1462654600.984639</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1944797508436622</v>
+        <v>0.1362751355934845</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0408608463134023</v>
+        <v>0.03315506761962934</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>724080911.1129142</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4801825302.99614</v>
+        <v>5277926218.127342</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09824979534515482</v>
+        <v>0.06969209716876147</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03890865291407954</v>
+        <v>0.04512628602755549</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2400912677.990772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4916434921.270991</v>
+        <v>3404338458.12513</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1637270448064016</v>
+        <v>0.1386268533219096</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02834386342874276</v>
+        <v>0.02737332083275234</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2458217560.844845</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5220299454.331595</v>
+        <v>4628323591.664455</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1312795269749293</v>
+        <v>0.1153821874174273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02463022989463757</v>
+        <v>0.02409095690900828</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2610149672.831203</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4740154301.347223</v>
+        <v>4911700443.735746</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1591743447792099</v>
+        <v>0.1011597356291733</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04028972959184449</v>
+        <v>0.03682611137447988</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2370077163.80089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2786162355.458366</v>
+        <v>3376882115.061289</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08053250703662336</v>
+        <v>0.08559026302934997</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03978373899935</v>
+        <v>0.0396166764698944</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>20</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1393081213.95724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5715378358.803563</v>
+        <v>3807140421.035429</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1371166141163363</v>
+        <v>0.1490425143716606</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04440246866396608</v>
+        <v>0.04727774278513715</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2857689279.017532</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1622190419.166727</v>
+        <v>2265001781.401669</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1682923626666232</v>
+        <v>0.1776450517874043</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04379433814702404</v>
+        <v>0.04626215980266697</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>811095165.5640962</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2830225659.37695</v>
+        <v>2451353217.684473</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08794267181578906</v>
+        <v>0.06687878304776246</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03930714699373039</v>
+        <v>0.04798951182728546</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1415112795.533388</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4760923897.263731</v>
+        <v>4877211291.454908</v>
       </c>
       <c r="F71" t="n">
-        <v>0.177618357731053</v>
+        <v>0.1551473934038733</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02648129281610753</v>
+        <v>0.02546625971452566</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2380462036.357268</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1569766416.910576</v>
+        <v>1794810700.633027</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07307465735779985</v>
+        <v>0.1031486577102167</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0465213044914899</v>
+        <v>0.04198864406533073</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>784883224.0737654</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2606192140.538542</v>
+        <v>2826607205.10023</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1046544335673181</v>
+        <v>0.1070670610621238</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05076221832533621</v>
+        <v>0.04968570473043878</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>24</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1303096102.177029</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3240988974.176624</v>
+        <v>2557837223.697134</v>
       </c>
       <c r="F74" t="n">
-        <v>0.135424282751616</v>
+        <v>0.1802009105871581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03247263295803959</v>
+        <v>0.02139918576865633</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1620494531.510272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1735488250.329918</v>
+        <v>1703861962.403056</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1457761670887236</v>
+        <v>0.1208882093332364</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02915668714996153</v>
+        <v>0.02869587034725195</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>867744114.0115466</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4934543839.06126</v>
+        <v>5214001976.799827</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09856213939630465</v>
+        <v>0.09727979650541894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02229242330449054</v>
+        <v>0.02862003759238096</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2467271943.316323</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2280290258.674073</v>
+        <v>1654381262.40103</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1555034805541009</v>
+        <v>0.1824368406670972</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02921439870084282</v>
+        <v>0.02506658439496921</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1140145232.106805</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3794399608.604806</v>
+        <v>4762439186.996805</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1099761041680981</v>
+        <v>0.09408035401747193</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03941305285044745</v>
+        <v>0.05340587416054513</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1897199784.645021</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1864225190.680635</v>
+        <v>1167091794.804373</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1105888468149705</v>
+        <v>0.1702506891110009</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03343145478803073</v>
+        <v>0.03626585851692752</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>932112693.1400164</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4373019035.595948</v>
+        <v>4448036638.198479</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09671456361706704</v>
+        <v>0.1059079560770607</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03263995954812177</v>
+        <v>0.03173684654925223</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2186509535.712098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4189161192.68024</v>
+        <v>4750753501.582418</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08437512196235268</v>
+        <v>0.09784107956157129</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02033833104644518</v>
+        <v>0.02473565515381109</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2094580566.482527</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3602773031.775241</v>
+        <v>5230125700.152073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1327032691902451</v>
+        <v>0.1808377090636578</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01983671694621452</v>
+        <v>0.02661906209251244</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1801386577.702345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1954540846.407799</v>
+        <v>1621971880.763646</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1330167959613217</v>
+        <v>0.1488563921596416</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03084444205287552</v>
+        <v>0.03357171064766865</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>977270402.7805005</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2505090631.149723</v>
+        <v>2225456768.086114</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09433633606335524</v>
+        <v>0.08767589252403687</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03459553635160526</v>
+        <v>0.04266716168948414</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1252545246.486638</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2628026448.798945</v>
+        <v>2626000012.960791</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1757333501614423</v>
+        <v>0.1238691888507433</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03702466687378831</v>
+        <v>0.03929122179016352</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1314013243.381418</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2546298606.282139</v>
+        <v>2670709619.028343</v>
       </c>
       <c r="F86" t="n">
-        <v>0.118096631072098</v>
+        <v>0.1262019654271964</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02087514151931583</v>
+        <v>0.02385686122060109</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1273149406.622319</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1457942184.085147</v>
+        <v>1153185469.056802</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1337205397636123</v>
+        <v>0.1209131287926071</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03578363642361228</v>
+        <v>0.03550670805333186</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>728971213.6701914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3576689532.153262</v>
+        <v>3236165363.641899</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1490307481970309</v>
+        <v>0.157954036607838</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0298784711004236</v>
+        <v>0.03536438231238657</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>25</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1788344853.367303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2361587404.518545</v>
+        <v>3014605862.309256</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1126247721800226</v>
+        <v>0.1083057774798118</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03563277104013601</v>
+        <v>0.033376247918028</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1180793787.046615</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2109817092.741036</v>
+        <v>1532195065.056545</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1221968089911765</v>
+        <v>0.09096680387298227</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03991081502687179</v>
+        <v>0.04316471011314427</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1054908636.627589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1964086746.657183</v>
+        <v>1468989363.928003</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1961666472717173</v>
+        <v>0.1733773881692991</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04416972496686104</v>
+        <v>0.04928998111087209</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>982043350.2732443</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2577770723.307728</v>
+        <v>1877554197.227303</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07813856626464294</v>
+        <v>0.08067776519085117</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03237423242707113</v>
+        <v>0.03095439842867077</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1288885351.385444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3118425247.142646</v>
+        <v>3579632319.384547</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1419501448555154</v>
+        <v>0.09247688656143767</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04758572551648216</v>
+        <v>0.0522796804095129</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1559212681.045779</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2427259670.289132</v>
+        <v>2316280222.001138</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1676811969800562</v>
+        <v>0.1682497915051407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02972650974186679</v>
+        <v>0.04161234380645363</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1213629889.006043</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3025213337.345817</v>
+        <v>2189504728.912968</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1325203012684266</v>
+        <v>0.1049730114711061</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04125462723053102</v>
+        <v>0.03404083223662065</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1512606666.457936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2152935290.391146</v>
+        <v>2324469916.860702</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1121433758955229</v>
+        <v>0.1233257255510293</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04357741626778248</v>
+        <v>0.04689590095123154</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1076467615.743308</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5113334174.417184</v>
+        <v>4092454629.818834</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1192837859669895</v>
+        <v>0.1317855568120016</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02430761244833257</v>
+        <v>0.02221520863905172</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2556667233.013929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2596179702.416497</v>
+        <v>3396763168.83147</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08515887964252601</v>
+        <v>0.1233481867906129</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02460455993582423</v>
+        <v>0.02049695824733701</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1298089808.415634</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3258768301.158666</v>
+        <v>2215471751.810849</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1350025086949751</v>
+        <v>0.1235017773481169</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03492375267201581</v>
+        <v>0.03269722304370114</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1629384155.188215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4402328799.131832</v>
+        <v>3224135902.184342</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1179177944495253</v>
+        <v>0.1115534776466656</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02330622832732131</v>
+        <v>0.02134568254555151</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>19</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2201164502.207257</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2714077744.695138</v>
+        <v>3487498192.553077</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155579744833635</v>
+        <v>0.1686244444012054</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05254450047020159</v>
+        <v>0.04435362678932729</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1357038923.500527</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_63.xlsx
+++ b/output/fit_clients/fit_round_63.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2252138309.051109</v>
+        <v>1986616719.057653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07986027452597848</v>
+        <v>0.08101563754879927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03084251702088817</v>
+        <v>0.03309615826825825</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2618621642.964246</v>
+        <v>1731467549.310363</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12855298507386</v>
+        <v>0.1629650141746418</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0352582664391062</v>
+        <v>0.03844195371640226</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4740284332.273119</v>
+        <v>3738331009.965566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1187056394372886</v>
+        <v>0.1243908032720452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.037007161624318</v>
+        <v>0.02832247299865965</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3667041955.561755</v>
+        <v>2828405325.926232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09665311476858778</v>
+        <v>0.09573254796708019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04479949790777563</v>
+        <v>0.04544770174682425</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2230348620.659158</v>
+        <v>2619666332.674786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1336679825386951</v>
+        <v>0.1063733598102103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04789034806495581</v>
+        <v>0.0524792323511722</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2650581052.910729</v>
+        <v>2034336411.806238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07942227020365132</v>
+        <v>0.08281093857416909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04683441803321649</v>
+        <v>0.03247556747223156</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3675784470.839397</v>
+        <v>3837494136.551101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2011321763011168</v>
+        <v>0.160929454553376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03130076841541744</v>
+        <v>0.03170250478989136</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2017474939.228539</v>
+        <v>1857299347.07639</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1668725989031662</v>
+        <v>0.1456205581739365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03335984659550608</v>
+        <v>0.03727387361525054</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5898296380.308462</v>
+        <v>5217239115.193254</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1853268791795362</v>
+        <v>0.1396117982416261</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0499849605809034</v>
+        <v>0.04302847561644971</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3365180745.079116</v>
+        <v>3137689329.17189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1668955642770308</v>
+        <v>0.1830034545090302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04679924686003183</v>
+        <v>0.04370695541980062</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2480998012.801212</v>
+        <v>2542664806.939663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1463114702433074</v>
+        <v>0.1487879471969322</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05016574160563839</v>
+        <v>0.05075568066057957</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4584645201.255255</v>
+        <v>4361118417.807311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09473033998521255</v>
+        <v>0.08253239255489045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0283080386954153</v>
+        <v>0.026095976413495</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3467051616.712815</v>
+        <v>3698674313.936658</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1314062935227706</v>
+        <v>0.1856115591562442</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03801458112837387</v>
+        <v>0.04401885487153794</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1537217799.854177</v>
+        <v>1529394226.648092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07973491289643093</v>
+        <v>0.08139966251388722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04629254158078221</v>
+        <v>0.03081856973855254</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2451003480.341559</v>
+        <v>2862374339.644094</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09584375344790282</v>
+        <v>0.09480863290772225</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04804055914645101</v>
+        <v>0.04124680298590357</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3541907026.101292</v>
+        <v>3552090538.492309</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155321772172791</v>
+        <v>0.12284813254851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04948582331349305</v>
+        <v>0.04226163965720468</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3273767909.39124</v>
+        <v>2871010922.90795</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16005316193313</v>
+        <v>0.1737903943293685</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0305454283034754</v>
+        <v>0.02658693371682403</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022187274.408392</v>
+        <v>1329851196.534406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1199319919033756</v>
+        <v>0.1523504875032048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02226329598842496</v>
+        <v>0.01956020887786843</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1911376299.04052</v>
+        <v>2163233427.546694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1495178425608228</v>
+        <v>0.140339967784601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02001501030203824</v>
+        <v>0.02471720679975461</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1854996047.504384</v>
+        <v>2150056866.430235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0683692407463876</v>
+        <v>0.1017969995145556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03822443598024133</v>
+        <v>0.04520560200694753</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3093429986.021851</v>
+        <v>3067845783.724492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09045213014417249</v>
+        <v>0.09231641006902397</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05425628593553965</v>
+        <v>0.03986604930145823</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1457732635.863721</v>
+        <v>1084808251.670834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1773902489938743</v>
+        <v>0.1405235573740083</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04864290213373013</v>
+        <v>0.05039815523470143</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2606266711.427223</v>
+        <v>3778965708.150728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122596593090686</v>
+        <v>0.1005842188859898</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02507109993322947</v>
+        <v>0.03292519695339358</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1412965842.133536</v>
+        <v>949656662.1262723</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1205168996231528</v>
+        <v>0.1137565741676623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0272209417920855</v>
+        <v>0.02490614000224563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1161689145.124381</v>
+        <v>1256936669.821233</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1129984198409871</v>
+        <v>0.09028955740554148</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03822243063331355</v>
+        <v>0.03235639651885745</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3926542189.967365</v>
+        <v>4245783607.339707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1373502511844081</v>
+        <v>0.1337505437779825</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01836445933775774</v>
+        <v>0.02679028022211948</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2686000561.760923</v>
+        <v>3412520973.661284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1094031033910358</v>
+        <v>0.109257366098678</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0366314430204681</v>
+        <v>0.04348777340583393</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5608860662.310422</v>
+        <v>4797991589.258457</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1228123489618846</v>
+        <v>0.1175858766496991</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02813385113720838</v>
+        <v>0.03220435787586004</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1862995585.572787</v>
+        <v>2385009684.106551</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1328163553966024</v>
+        <v>0.1169182377980263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0319706836752306</v>
+        <v>0.03053638232485986</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1032772623.615398</v>
+        <v>1211966779.089653</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07316291951076868</v>
+        <v>0.1052038689604863</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04443675920145078</v>
+        <v>0.0423852358271755</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1778901726.064896</v>
+        <v>1327679175.776621</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09875316430632874</v>
+        <v>0.1077118952239471</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03047898726632805</v>
+        <v>0.02528830759143919</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2751798617.121212</v>
+        <v>2609485757.719179</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2063483475249628</v>
+        <v>0.1280883917639161</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05187286229619287</v>
+        <v>0.0424069470843141</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1313011943.518547</v>
+        <v>1012201060.600201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07817023352534182</v>
+        <v>0.1160220254030727</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02773784571543434</v>
+        <v>0.02645229273120035</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>904431358.0471742</v>
+        <v>1107782257.216659</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08214922633398763</v>
+        <v>0.07756384167328675</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03796326298721971</v>
+        <v>0.029796364027975</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3216866263.025226</v>
+        <v>2513942988.59305</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1656408711286202</v>
+        <v>0.1587324778787746</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01905360605237486</v>
+        <v>0.02781691962567956</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2876802213.683964</v>
+        <v>2353199474.992097</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09782763589071557</v>
+        <v>0.07458154170835907</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03998001313909465</v>
+        <v>0.03734899354906395</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1958606310.913746</v>
+        <v>2100599439.040612</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1069565417042786</v>
+        <v>0.07532935977234351</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03898428025983269</v>
+        <v>0.03512818832441896</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1838383087.453412</v>
+        <v>1473858032.112546</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1418386316105127</v>
+        <v>0.1875091306032894</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03150941806011771</v>
+        <v>0.03317765586831251</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1516792166.608482</v>
+        <v>1196215218.74348</v>
       </c>
       <c r="F40" t="n">
-        <v>0.15755050572472</v>
+        <v>0.1002468130860329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04375016227501567</v>
+        <v>0.05160758454525419</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2324199719.65404</v>
+        <v>2925356315.229136</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1097632945568279</v>
+        <v>0.1375897225697747</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0472575649377892</v>
+        <v>0.03995707575154388</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2765147449.246626</v>
+        <v>3387992048.83075</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07827644911763533</v>
+        <v>0.09388646626863283</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04348666041938291</v>
+        <v>0.03118257424803713</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1916168030.089214</v>
+        <v>2877583191.489135</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1306675816697384</v>
+        <v>0.1272971408317366</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02545098931951967</v>
+        <v>0.01665175900383731</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2176233812.157379</v>
+        <v>2247792766.47735</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09672527039509987</v>
+        <v>0.0991359797598573</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02821236296641738</v>
+        <v>0.0265590414893272</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2171278748.358895</v>
+        <v>2151192423.687636</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1584293445013525</v>
+        <v>0.145496230546425</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03856979476652914</v>
+        <v>0.04718444710219853</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3894019591.762187</v>
+        <v>3788982094.234765</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1089012804649443</v>
+        <v>0.1206482381639089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04863623120081333</v>
+        <v>0.04768126985553099</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3879996909.740476</v>
+        <v>4603695622.299519</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1834830568768085</v>
+        <v>0.1820256910242829</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03825755336411803</v>
+        <v>0.04633163971109486</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2997778821.354714</v>
+        <v>4133111862.558362</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1054224815502103</v>
+        <v>0.06864395107619849</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02435261649425894</v>
+        <v>0.03174566280212114</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1903280641.119934</v>
+        <v>1837016107.221949</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1680521201522471</v>
+        <v>0.1183314021115192</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04305638684879166</v>
+        <v>0.03635236718331413</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2699494866.426537</v>
+        <v>2541159507.869315</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1317357904682734</v>
+        <v>0.162527506889648</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03390512303949031</v>
+        <v>0.04120127589178633</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1284613708.101819</v>
+        <v>1191167983.203592</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1842293797701522</v>
+        <v>0.1392406195688697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0339805929005342</v>
+        <v>0.04913482046049594</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3619781089.391008</v>
+        <v>4684114953.526635</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1109288881152866</v>
+        <v>0.1030581403156515</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04075705250257448</v>
+        <v>0.06069237896541474</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2435753929.241004</v>
+        <v>3770907532.11217</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1789384391671598</v>
+        <v>0.1469076821467643</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03504000707644704</v>
+        <v>0.02369367491910742</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4352416623.613462</v>
+        <v>3649711818.492487</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1344741789577207</v>
+        <v>0.1268110892495066</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03750427933664148</v>
+        <v>0.03406829482027737</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4323750820.765547</v>
+        <v>4804521091.595315</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146979091755892</v>
+        <v>0.1721426036849944</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02811754685208354</v>
+        <v>0.02214582572475239</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1154677394.69797</v>
+        <v>1259466159.573424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1524607187426588</v>
+        <v>0.1318727274482489</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04246851191809837</v>
+        <v>0.03694029857957232</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2940538571.469251</v>
+        <v>4236791767.642017</v>
       </c>
       <c r="F57" t="n">
-        <v>0.179464009518229</v>
+        <v>0.1438206761360275</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01868218405411465</v>
+        <v>0.02193789583409818</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1311832362.173937</v>
+        <v>1241088263.11449</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1883188715900671</v>
+        <v>0.1221168077768856</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03443890181226006</v>
+        <v>0.03159460161107373</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3347786698.363436</v>
+        <v>3860949272.438932</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1129260588695774</v>
+        <v>0.1232558348834389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03192169662687767</v>
+        <v>0.03487526366834786</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3356698271.482775</v>
+        <v>3541064465.843762</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1784725714097294</v>
+        <v>0.1269850505447541</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02723467894826701</v>
+        <v>0.03219795858775493</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2476027499.271243</v>
+        <v>3407615764.457061</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1422886681953621</v>
+        <v>0.1304016138703085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02923024850177936</v>
+        <v>0.02379341216756847</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1462654600.984639</v>
+        <v>1583814874.556895</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1362751355934845</v>
+        <v>0.1306697930909078</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03315506761962934</v>
+        <v>0.04857086338970463</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5277926218.127342</v>
+        <v>4745084875.604258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06969209716876147</v>
+        <v>0.09788389831108303</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04512628602755549</v>
+        <v>0.04079558448581602</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3404338458.12513</v>
+        <v>3635108262.629943</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1386268533219096</v>
+        <v>0.1401038299429339</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02737332083275234</v>
+        <v>0.03106855862075926</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4628323591.664455</v>
+        <v>4540695728.671</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1153821874174273</v>
+        <v>0.1189777721164225</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02409095690900828</v>
+        <v>0.02241772905816194</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4911700443.735746</v>
+        <v>5420221384.270143</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1011597356291733</v>
+        <v>0.129285714016046</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03682611137447988</v>
+        <v>0.04921564690539195</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3376882115.061289</v>
+        <v>2262077314.418926</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08559026302934997</v>
+        <v>0.07693078410986144</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0396166764698944</v>
+        <v>0.04931895842323401</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3807140421.035429</v>
+        <v>5579095399.555227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490425143716606</v>
+        <v>0.1224288573589016</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04727774278513715</v>
+        <v>0.03301840674453594</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2265001781.401669</v>
+        <v>1588760734.16936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1776450517874043</v>
+        <v>0.164416569216165</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04626215980266697</v>
+        <v>0.04153553167699053</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2451353217.684473</v>
+        <v>2649952921.981283</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06687878304776246</v>
+        <v>0.06884385769243227</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04798951182728546</v>
+        <v>0.0452816768614002</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4877211291.454908</v>
+        <v>3635646308.836958</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1551473934038733</v>
+        <v>0.1627181586536225</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02546625971452566</v>
+        <v>0.02664862128888467</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1794810700.633027</v>
+        <v>1765909682.125406</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1031486577102167</v>
+        <v>0.08750704894238263</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04198864406533073</v>
+        <v>0.04292333828117045</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2826607205.10023</v>
+        <v>3579424887.894639</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1070670610621238</v>
+        <v>0.1030836584726895</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04968570473043878</v>
+        <v>0.05091065688878548</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2557837223.697134</v>
+        <v>2725302615.448049</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1802009105871581</v>
+        <v>0.1425990729311651</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02139918576865633</v>
+        <v>0.03283024785244629</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1703861962.403056</v>
+        <v>2272380573.951773</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1208882093332364</v>
+        <v>0.1387875998164037</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02869587034725195</v>
+        <v>0.02818583981113978</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5214001976.799827</v>
+        <v>3447643276.695353</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09727979650541894</v>
+        <v>0.1162780511303841</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02862003759238096</v>
+        <v>0.02601355061972073</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1654381262.40103</v>
+        <v>1740407904.21424</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1824368406670972</v>
+        <v>0.1840147814723906</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02506658439496921</v>
+        <v>0.01985074007575705</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4762439186.996805</v>
+        <v>3444625616.813111</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09408035401747193</v>
+        <v>0.1221486340533069</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05340587416054513</v>
+        <v>0.0422279929156078</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1167091794.804373</v>
+        <v>1845728747.055087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1702506891110009</v>
+        <v>0.1708093222126167</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03626585851692752</v>
+        <v>0.03393199387069772</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4448036638.198479</v>
+        <v>4016482987.175452</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059079560770607</v>
+        <v>0.1094338730785499</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03173684654925223</v>
+        <v>0.03055830670458701</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4750753501.582418</v>
+        <v>4858862531.392412</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09784107956157129</v>
+        <v>0.08499015817012703</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02473565515381109</v>
+        <v>0.03192075438387376</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5230125700.152073</v>
+        <v>3920237065.654662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1808377090636578</v>
+        <v>0.1746931271965028</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02661906209251244</v>
+        <v>0.01885468363441367</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1621971880.763646</v>
+        <v>2469093006.592993</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1488563921596416</v>
+        <v>0.1452040274074945</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03357171064766865</v>
+        <v>0.03269834610076562</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2225456768.086114</v>
+        <v>1695503027.287453</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08767589252403687</v>
+        <v>0.107320676579314</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04266716168948414</v>
+        <v>0.03657726304936976</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2626000012.960791</v>
+        <v>3178049858.1908</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1238691888507433</v>
+        <v>0.1430233075352112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03929122179016352</v>
+        <v>0.0466071288042586</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2670709619.028343</v>
+        <v>2565754960.426924</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1262019654271964</v>
+        <v>0.1560011449022669</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02385686122060109</v>
+        <v>0.01821929477141397</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1153185469.056802</v>
+        <v>1298795035.399399</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1209131287926071</v>
+        <v>0.1306378994693781</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03550670805333186</v>
+        <v>0.0402846191166678</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3236165363.641899</v>
+        <v>2358954977.867444</v>
       </c>
       <c r="F88" t="n">
-        <v>0.157954036607838</v>
+        <v>0.1177458735726414</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03536438231238657</v>
+        <v>0.0309522556344215</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3014605862.309256</v>
+        <v>3264521503.900018</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1083057774798118</v>
+        <v>0.1386459121459054</v>
       </c>
       <c r="G89" t="n">
-        <v>0.033376247918028</v>
+        <v>0.03488068916852218</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1532195065.056545</v>
+        <v>1406000825.854476</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09096680387298227</v>
+        <v>0.1370358303827578</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04316471011314427</v>
+        <v>0.03760555597609469</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1468989363.928003</v>
+        <v>1781599996.69132</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1733773881692991</v>
+        <v>0.1941376891398875</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04928998111087209</v>
+        <v>0.0478554905930846</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1877554197.227303</v>
+        <v>2314813095.262666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08067776519085117</v>
+        <v>0.06690441760351389</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03095439842867077</v>
+        <v>0.03853128685997292</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3579632319.384547</v>
+        <v>3959097217.605698</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09247688656143767</v>
+        <v>0.108869839949129</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0522796804095129</v>
+        <v>0.03313393825260109</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2316280222.001138</v>
+        <v>1622090190.015147</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1682497915051407</v>
+        <v>0.1379039531939004</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04161234380645363</v>
+        <v>0.03647523905560341</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2189504728.912968</v>
+        <v>2519820858.158865</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1049730114711061</v>
+        <v>0.1235554827677935</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03404083223662065</v>
+        <v>0.04050404274049428</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2324469916.860702</v>
+        <v>1720573627.162202</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1233257255510293</v>
+        <v>0.1009316118894526</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04689590095123154</v>
+        <v>0.03391972532880084</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4092454629.818834</v>
+        <v>4319162827.671579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317855568120016</v>
+        <v>0.1275178555979498</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02221520863905172</v>
+        <v>0.02115726273596383</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3396763168.83147</v>
+        <v>3854553430.198835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1233481867906129</v>
+        <v>0.09115647481981001</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02049695824733701</v>
+        <v>0.02075035045534685</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2215471751.810849</v>
+        <v>2223634897.694932</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235017773481169</v>
+        <v>0.1157908131157495</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03269722304370114</v>
+        <v>0.0270265646536264</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3224135902.184342</v>
+        <v>3336808088.723828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1115534776466656</v>
+        <v>0.125061865473803</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02134568254555151</v>
+        <v>0.02186475606625038</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3487498192.553077</v>
+        <v>3464359855.795986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1686244444012054</v>
+        <v>0.2215571376189893</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04435362678932729</v>
+        <v>0.05536386677634252</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_63.xlsx
+++ b/output/fit_clients/fit_round_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1986616719.057653</v>
+        <v>1916824881.893493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08101563754879927</v>
+        <v>0.08158398471204976</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03309615826825825</v>
+        <v>0.03532247521699418</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1731467549.310363</v>
+        <v>2073183976.048748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1629650141746418</v>
+        <v>0.113746005353066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03844195371640226</v>
+        <v>0.04788008774416983</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3738331009.965566</v>
+        <v>4396950949.458783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1243908032720452</v>
+        <v>0.1364272039142063</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02832247299865965</v>
+        <v>0.03582516473929546</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2828405325.926232</v>
+        <v>4166504279.128322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09573254796708019</v>
+        <v>0.07913692536747056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04544770174682425</v>
+        <v>0.03479697422217401</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>204.4662706785945</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2619666332.674786</v>
+        <v>2132771592.771294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1063733598102103</v>
+        <v>0.1334673146655789</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0524792323511722</v>
+        <v>0.04273531354103466</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2034336411.806238</v>
+        <v>3068772214.584642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08281093857416909</v>
+        <v>0.1007676163586082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03247556747223156</v>
+        <v>0.03764271708650836</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3837494136.551101</v>
+        <v>3638733443.665595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.160929454553376</v>
+        <v>0.2111268004568076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03170250478989136</v>
+        <v>0.03218605136384704</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1857299347.07639</v>
+        <v>1596181226.948822</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1456205581739365</v>
+        <v>0.1896196674395547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03727387361525054</v>
+        <v>0.02328740819364477</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5217239115.193254</v>
+        <v>5862911355.882884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1396117982416261</v>
+        <v>0.2070128320721407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04302847561644971</v>
+        <v>0.04962350127008637</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>212.6462673922652</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3137689329.17189</v>
+        <v>2616887012.631805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1830034545090302</v>
+        <v>0.1839459061612591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04370695541980062</v>
+        <v>0.03640869252215866</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2542664806.939663</v>
+        <v>2756524921.340692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1487879471969322</v>
+        <v>0.1856129449414365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05075568066057957</v>
+        <v>0.05102097687562612</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4361118417.807311</v>
+        <v>4362716498.106562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08253239255489045</v>
+        <v>0.09712830619234625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.026095976413495</v>
+        <v>0.02755687777512527</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>192.2289662111895</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3698674313.936658</v>
+        <v>3285745949.286654</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1856115591562442</v>
+        <v>0.1349722626521879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04401885487153794</v>
+        <v>0.04173559103612198</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1529394226.648092</v>
+        <v>1165058666.106922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08139966251388722</v>
+        <v>0.06727274669690425</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03081856973855254</v>
+        <v>0.03939053223690163</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2862374339.644094</v>
+        <v>2626656643.66453</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09480863290772225</v>
+        <v>0.1124290688839455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04124680298590357</v>
+        <v>0.03269007755694169</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3552090538.492309</v>
+        <v>4993424574.309302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.12284813254851</v>
+        <v>0.1716028268430922</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04226163965720468</v>
+        <v>0.03792657654094773</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="n">
+        <v>63</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2871010922.90795</v>
+        <v>3153007495.963589</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1737903943293685</v>
+        <v>0.139157789861507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02658693371682403</v>
+        <v>0.02123181035670588</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>61</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1329851196.534406</v>
+        <v>885820782.8673934</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1523504875032048</v>
+        <v>0.1829528196035883</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01956020887786843</v>
+        <v>0.02070520335771675</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2163233427.546694</v>
+        <v>2647834736.142535</v>
       </c>
       <c r="F20" t="n">
-        <v>0.140339967784601</v>
+        <v>0.1569778914086253</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02471720679975461</v>
+        <v>0.02487801455724045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2150056866.430235</v>
+        <v>2538480675.810186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1017969995145556</v>
+        <v>0.08655677873524049</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04520560200694753</v>
+        <v>0.0366605759288416</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3067845783.724492</v>
+        <v>3916032095.201066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09231641006902397</v>
+        <v>0.1180186923059288</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03986604930145823</v>
+        <v>0.03621185167816284</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>62</v>
+      </c>
+      <c r="K22" t="n">
+        <v>167.975969471652</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1084808251.670834</v>
+        <v>1538810777.270641</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1405235573740083</v>
+        <v>0.1808214221288658</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05039815523470143</v>
+        <v>0.04004160076297408</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3778965708.150728</v>
+        <v>3403964273.281486</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1005842188859898</v>
+        <v>0.1394051087940657</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03292519695339358</v>
+        <v>0.02932499839196761</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>949656662.1262723</v>
+        <v>1327235974.16707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1137565741676623</v>
+        <v>0.1208170393320865</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02490614000224563</v>
+        <v>0.02430952691317156</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1256936669.821233</v>
+        <v>893573603.8819655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09028955740554148</v>
+        <v>0.08856792398315973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03235639651885745</v>
+        <v>0.03356725190539525</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4245783607.339707</v>
+        <v>3172518530.93811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1337505437779825</v>
+        <v>0.09589588418194114</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02679028022211948</v>
+        <v>0.02462034695822661</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>62</v>
+      </c>
+      <c r="K27" t="n">
+        <v>105.4232747780814</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3412520973.661284</v>
+        <v>3552348219.129817</v>
       </c>
       <c r="F28" t="n">
-        <v>0.109257366098678</v>
+        <v>0.1220457375938888</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04348777340583393</v>
+        <v>0.04082242916153788</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4797991589.258457</v>
+        <v>5015270763.689536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1175858766496991</v>
+        <v>0.09752104989092567</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03220435787586004</v>
+        <v>0.03429683395033209</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>57</v>
+      </c>
+      <c r="J29" t="n">
+        <v>63</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2385009684.106551</v>
+        <v>2034283380.462289</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1169182377980263</v>
+        <v>0.1004071771678536</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03053638232485986</v>
+        <v>0.02770011001452047</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1211966779.089653</v>
+        <v>1174162753.864214</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1052038689604863</v>
+        <v>0.09325713980100706</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0423852358271755</v>
+        <v>0.04402069800611862</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1327679175.776621</v>
+        <v>1531390370.557657</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077118952239471</v>
+        <v>0.09414599150798579</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02528830759143919</v>
+        <v>0.02398834427055201</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2609485757.719179</v>
+        <v>1881236705.079591</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1280883917639161</v>
+        <v>0.1965626645913359</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0424069470843141</v>
+        <v>0.03877804307289563</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1012201060.600201</v>
+        <v>1467289279.355829</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1160220254030727</v>
+        <v>0.1125938667704146</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02645229273120035</v>
+        <v>0.02028216452608808</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107782257.216659</v>
+        <v>1152535655.694713</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07756384167328675</v>
+        <v>0.104478559191925</v>
       </c>
       <c r="G35" t="n">
-        <v>0.029796364027975</v>
+        <v>0.04228621269719562</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2513942988.59305</v>
+        <v>2594778754.853189</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587324778787746</v>
+        <v>0.1631462318747125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02781691962567956</v>
+        <v>0.02678967240088699</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2353199474.992097</v>
+        <v>2609547000.003288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07458154170835907</v>
+        <v>0.1005571830951303</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03734899354906395</v>
+        <v>0.02921078914203284</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2100599439.040612</v>
+        <v>1929479321.654022</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07532935977234351</v>
+        <v>0.09391682410404548</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03512818832441896</v>
+        <v>0.03176202578189445</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1473858032.112546</v>
+        <v>1696551430.653312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1875091306032894</v>
+        <v>0.1199455162045026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03317765586831251</v>
+        <v>0.02106209527688872</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196215218.74348</v>
+        <v>1134561493.081754</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1002468130860329</v>
+        <v>0.1482684282510694</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05160758454525419</v>
+        <v>0.03964375861832416</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2925356315.229136</v>
+        <v>1984513744.147696</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1375897225697747</v>
+        <v>0.1528339119191975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03995707575154388</v>
+        <v>0.03915498381255655</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3387992048.83075</v>
+        <v>3241465502.620881</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09388646626863283</v>
+        <v>0.08251542762150495</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03118257424803713</v>
+        <v>0.03030780310583781</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2877583191.489135</v>
+        <v>3031135106.352721</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1272971408317366</v>
+        <v>0.1834239109686097</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01665175900383731</v>
+        <v>0.02472648733346446</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2247792766.47735</v>
+        <v>1719681428.12917</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0991359797598573</v>
+        <v>0.1027447312075917</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0265590414893272</v>
+        <v>0.02688911387186746</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2151192423.687636</v>
+        <v>2220306334.631128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.145496230546425</v>
+        <v>0.1933604524197022</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04718444710219853</v>
+        <v>0.03578320051091858</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3788982094.234765</v>
+        <v>4268958088.106683</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1206482381639089</v>
+        <v>0.1634179793678774</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04768126985553099</v>
+        <v>0.05160884399773347</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>38</v>
+      </c>
+      <c r="J46" t="n">
+        <v>62</v>
+      </c>
+      <c r="K46" t="n">
+        <v>188.2011506056292</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4603695622.299519</v>
+        <v>4983190785.092986</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1820256910242829</v>
+        <v>0.1454975118547925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04633163971109486</v>
+        <v>0.05626706100854616</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4133111862.558362</v>
+        <v>3884719636.996964</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06864395107619849</v>
+        <v>0.07537789230499212</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03174566280212114</v>
+        <v>0.03097300953099362</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>62</v>
+      </c>
+      <c r="K48" t="n">
+        <v>190.5236301846883</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1837016107.221949</v>
+        <v>1263359112.853971</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1183314021115192</v>
+        <v>0.175918025441337</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03635236718331413</v>
+        <v>0.03525943250625681</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2541159507.869315</v>
+        <v>3431204645.922776</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162527506889648</v>
+        <v>0.1152947781184092</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04120127589178633</v>
+        <v>0.03379745576980268</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>62</v>
+      </c>
+      <c r="K50" t="n">
+        <v>148.2878642608836</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1191167983.203592</v>
+        <v>1427280880.397832</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1392406195688697</v>
+        <v>0.1224879964796962</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04913482046049594</v>
+        <v>0.05301699460882413</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4684114953.526635</v>
+        <v>3607746433.413808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1030581403156515</v>
+        <v>0.1224890809865701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06069237896541474</v>
+        <v>0.05432010896342572</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>51</v>
+      </c>
+      <c r="J52" t="n">
+        <v>62</v>
+      </c>
+      <c r="K52" t="n">
+        <v>172.9585387809278</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3770907532.11217</v>
+        <v>2985439912.693451</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1469076821467643</v>
+        <v>0.1582175440776643</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02369367491910742</v>
+        <v>0.02673258309257057</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3649711818.492487</v>
+        <v>4817489618.329662</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1268110892495066</v>
+        <v>0.1608393481132986</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03406829482027737</v>
+        <v>0.04231782403942518</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>63</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4804521091.595315</v>
+        <v>4396488675.818413</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1721426036849944</v>
+        <v>0.1624205526514245</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02214582572475239</v>
+        <v>0.03141513592048674</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29</v>
+      </c>
+      <c r="J55" t="n">
+        <v>62</v>
+      </c>
+      <c r="K55" t="n">
+        <v>168.6249434275378</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1259466159.573424</v>
+        <v>1661174319.666907</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1318727274482489</v>
+        <v>0.1151287740389988</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03694029857957232</v>
+        <v>0.04409306774913187</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4236791767.642017</v>
+        <v>3042543425.477456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1438206761360275</v>
+        <v>0.1670348662732762</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02193789583409818</v>
+        <v>0.02440309321930329</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>62</v>
+      </c>
+      <c r="K57" t="n">
+        <v>111.2793564173515</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1241088263.11449</v>
+        <v>1178800599.578944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1221168077768856</v>
+        <v>0.155030762188028</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03159460161107373</v>
+        <v>0.02712400647587426</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3860949272.438932</v>
+        <v>3910779268.018835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1232558348834389</v>
+        <v>0.1157264708516036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03487526366834786</v>
+        <v>0.04011433166108734</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" t="n">
+        <v>63</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3541064465.843762</v>
+        <v>3049159186.090738</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1269850505447541</v>
+        <v>0.1984064674727569</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03219795858775493</v>
+        <v>0.0320366904717148</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3407615764.457061</v>
+        <v>3263150095.305014</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1304016138703085</v>
+        <v>0.1290537414226386</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02379341216756847</v>
+        <v>0.02225818175612545</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1583814874.556895</v>
+        <v>1787072564.716859</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1306697930909078</v>
+        <v>0.1907171484222999</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04857086338970463</v>
+        <v>0.0407813115628816</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4745084875.604258</v>
+        <v>5222643049.213461</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09788389831108303</v>
+        <v>0.09993742981270111</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04079558448581602</v>
+        <v>0.04555114657500788</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>31</v>
+      </c>
+      <c r="J63" t="n">
+        <v>62</v>
+      </c>
+      <c r="K63" t="n">
+        <v>176.2029891699121</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3635108262.629943</v>
+        <v>4727688701.678164</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1401038299429339</v>
+        <v>0.1229722978346081</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03106855862075926</v>
+        <v>0.03200651599921531</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>62</v>
+      </c>
+      <c r="K64" t="n">
+        <v>181.065880691858</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4540695728.671</v>
+        <v>4133474118.120235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1189777721164225</v>
+        <v>0.171868821806304</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02241772905816194</v>
+        <v>0.02452810821801481</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
+      <c r="K65" t="n">
+        <v>193.0371884115939</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5420221384.270143</v>
+        <v>3816990354.296222</v>
       </c>
       <c r="F66" t="n">
-        <v>0.129285714016046</v>
+        <v>0.1491249704665894</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04921564690539195</v>
+        <v>0.04874164635806616</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>62</v>
+      </c>
+      <c r="K66" t="n">
+        <v>172.3880257144102</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2262077314.418926</v>
+        <v>2524291913.703638</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07693078410986144</v>
+        <v>0.07877380539184416</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04931895842323401</v>
+        <v>0.03627509687131621</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5579095399.555227</v>
+        <v>5236493914.403479</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1224288573589016</v>
+        <v>0.1065514651231154</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03301840674453594</v>
+        <v>0.0420662860350559</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>63</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1588760734.16936</v>
+        <v>2312159123.484626</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164416569216165</v>
+        <v>0.1488337048951503</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04153553167699053</v>
+        <v>0.04492323856367402</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2649952921.981283</v>
+        <v>3265508217.474154</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06884385769243227</v>
+        <v>0.09630698863748259</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0452816768614002</v>
+        <v>0.03531516103985774</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3635646308.836958</v>
+        <v>4694793545.232923</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1627181586536225</v>
+        <v>0.1313498541391125</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02664862128888467</v>
+        <v>0.02868480579539538</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>51</v>
+      </c>
+      <c r="J71" t="n">
+        <v>63</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1765909682.125406</v>
+        <v>2204763453.886995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08750704894238263</v>
+        <v>0.1028812747906643</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04292333828117045</v>
+        <v>0.04321054758311851</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3579424887.894639</v>
+        <v>2561565366.618474</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1030836584726895</v>
+        <v>0.1118324673800951</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05091065688878548</v>
+        <v>0.03453492195025389</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2725302615.448049</v>
+        <v>3999272374.535729</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1425990729311651</v>
+        <v>0.1178756563594672</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03283024785244629</v>
+        <v>0.02219418832328487</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>63</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2272380573.951773</v>
+        <v>1806421357.975633</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1387875998164037</v>
+        <v>0.1018146362208079</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02818583981113978</v>
+        <v>0.03776719524139251</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3447643276.695353</v>
+        <v>3456871991.251558</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1162780511303841</v>
+        <v>0.1161828184269432</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02601355061972073</v>
+        <v>0.03193731697169901</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="n">
+        <v>61</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1740407904.21424</v>
+        <v>1612371677.147156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1840147814723906</v>
+        <v>0.181682788765666</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01985074007575705</v>
+        <v>0.03146498804645349</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3444625616.813111</v>
+        <v>2999021031.01569</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1221486340533069</v>
+        <v>0.08837280083793198</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0422279929156078</v>
+        <v>0.05412225801659722</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>60</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1845728747.055087</v>
+        <v>1337539541.325235</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1708093222126167</v>
+        <v>0.1439382585512894</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03393199387069772</v>
+        <v>0.02866232137952731</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4016482987.175452</v>
+        <v>4954286232.761319</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1094338730785499</v>
+        <v>0.08701235432208029</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03055830670458701</v>
+        <v>0.03688778176219813</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>63</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4858862531.392412</v>
+        <v>3505939544.351299</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08499015817012703</v>
+        <v>0.08447976497408817</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03192075438387376</v>
+        <v>0.03273119769972327</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>28</v>
+      </c>
+      <c r="J81" t="n">
+        <v>63</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3920237065.654662</v>
+        <v>4575889363.933738</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1746931271965028</v>
+        <v>0.1868095959436339</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01885468363441367</v>
+        <v>0.02705386114788058</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>37</v>
+      </c>
+      <c r="J82" t="n">
+        <v>63</v>
+      </c>
+      <c r="K82" t="n">
+        <v>198.5297372735131</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2469093006.592993</v>
+        <v>1852841490.938547</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1452040274074945</v>
+        <v>0.1436007268495627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03269834610076562</v>
+        <v>0.03103253461373435</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1695503027.287453</v>
+        <v>2294802627.25912</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107320676579314</v>
+        <v>0.09730049130891295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03657726304936976</v>
+        <v>0.03611349626285755</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3178049858.1908</v>
+        <v>3069738302.527882</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1430233075352112</v>
+        <v>0.143943741699015</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0466071288042586</v>
+        <v>0.03746865243369646</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>60</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2565754960.426924</v>
+        <v>1985188098.730615</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1560011449022669</v>
+        <v>0.1602252276108733</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01821929477141397</v>
+        <v>0.01750172622199666</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1298795035.399399</v>
+        <v>1289996203.421985</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1306378994693781</v>
+        <v>0.1887563835407821</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0402846191166678</v>
+        <v>0.03866207460836324</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3543,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2358954977.867444</v>
+        <v>2884630332.530708</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1177458735726414</v>
+        <v>0.1074090484176109</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0309522556344215</v>
+        <v>0.03460700314303006</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3572,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3264521503.900018</v>
+        <v>2630671008.376358</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1386459121459054</v>
+        <v>0.1357055072528655</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03488068916852218</v>
+        <v>0.03136282500285879</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="n">
+        <v>87.53192015527966</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1406000825.854476</v>
+        <v>1904677176.875501</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1370358303827578</v>
+        <v>0.1097788776785371</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03760555597609469</v>
+        <v>0.04620140150386317</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1781599996.69132</v>
+        <v>1993157360.848696</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1941376891398875</v>
+        <v>0.1391468501936159</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0478554905930846</v>
+        <v>0.04774004225901921</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2314813095.262666</v>
+        <v>1860212347.53936</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06690441760351389</v>
+        <v>0.08451860972868927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03853128685997292</v>
+        <v>0.03780159700029256</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3959097217.605698</v>
+        <v>3105667349.383465</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108869839949129</v>
+        <v>0.1008992362989499</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03313393825260109</v>
+        <v>0.03582054882485874</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>62</v>
+      </c>
+      <c r="K93" t="n">
+        <v>111.5929126613568</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1622090190.015147</v>
+        <v>1565764674.210499</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1379039531939004</v>
+        <v>0.1328328585025521</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03647523905560341</v>
+        <v>0.04295029076968937</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2519820858.158865</v>
+        <v>2529490830.515954</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1235554827677935</v>
+        <v>0.1262074640782316</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04050404274049428</v>
+        <v>0.04795567345788854</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1720573627.162202</v>
+        <v>2214869482.903695</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1009316118894526</v>
+        <v>0.109633166266798</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03391972532880084</v>
+        <v>0.03206176723710077</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4319162827.671579</v>
+        <v>4085829287.850409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1275178555979498</v>
+        <v>0.1170318918545248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02115726273596383</v>
+        <v>0.0269466677081773</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>30</v>
+      </c>
+      <c r="J97" t="n">
+        <v>63</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3854553430.198835</v>
+        <v>3073482991.779125</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09115647481981001</v>
+        <v>0.1106543533262642</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02075035045534685</v>
+        <v>0.02257085768650695</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="n">
+        <v>105.3547658763398</v>
       </c>
     </row>
     <row r="99">
@@ -3202,16 +3934,25 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2223634897.694932</v>
+        <v>2182178640.390528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1157908131157495</v>
+        <v>0.1173409509408378</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0270265646536264</v>
+        <v>0.02446309166101047</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="n">
+        <v>58.28952044978237</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3336808088.723828</v>
+        <v>4630823473.267833</v>
       </c>
       <c r="F100" t="n">
-        <v>0.125061865473803</v>
+        <v>0.1725564113617351</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02186475606625038</v>
+        <v>0.01965743784300307</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>63</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3464359855.795986</v>
+        <v>2961562994.321562</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2215571376189893</v>
+        <v>0.1405197686047379</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05536386677634252</v>
+        <v>0.04578406333243504</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
